--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="63">
   <si>
     <t>Service</t>
   </si>
@@ -110,115 +110,132 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>NA Process Result</t>
+  </si>
+  <si>
+    <t>Connect OP Result</t>
+  </si>
+  <si>
+    <t>NA Fail Log</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Get TrackingNo</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>10167931</t>
+  </si>
+  <si>
+    <t>10169469</t>
+  </si>
+  <si>
+    <t>10169480</t>
+  </si>
+  <si>
+    <t>10169553</t>
+  </si>
+  <si>
+    <t>10169582</t>
+  </si>
+  <si>
+    <t>10169611</t>
+  </si>
+  <si>
+    <t>10169644</t>
+  </si>
+  <si>
+    <t>10169669</t>
+  </si>
+  <si>
+    <t>10169679</t>
+  </si>
+  <si>
+    <t>10169716</t>
+  </si>
+  <si>
+    <t>10169727</t>
+  </si>
+  <si>
+    <t>10169918</t>
+  </si>
+  <si>
+    <t>10169948</t>
+  </si>
+  <si>
+    <t>794644248189</t>
+  </si>
+  <si>
+    <t>10170039</t>
+  </si>
+  <si>
+    <t>10068344</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>10059598</t>
-  </si>
-  <si>
-    <t>10059600</t>
-  </si>
-  <si>
-    <t>10059603</t>
-  </si>
-  <si>
-    <t>10059610</t>
-  </si>
-  <si>
-    <t>10059622</t>
-  </si>
-  <si>
-    <t>10059630</t>
-  </si>
-  <si>
-    <t>10059858</t>
-  </si>
-  <si>
-    <t>10059863</t>
-  </si>
-  <si>
-    <t>10059864</t>
-  </si>
-  <si>
-    <t>10059887</t>
-  </si>
-  <si>
-    <t>10059897</t>
-  </si>
-  <si>
-    <t>794641595264</t>
-  </si>
-  <si>
-    <t>10059903</t>
-  </si>
-  <si>
-    <t>NA Process Result</t>
-  </si>
-  <si>
-    <t>Connect OP Result</t>
-  </si>
-  <si>
-    <t>NA Fail Log</t>
-  </si>
-  <si>
-    <t>10060236</t>
-  </si>
-  <si>
-    <t>10060246</t>
-  </si>
-  <si>
-    <t>10060327</t>
-  </si>
-  <si>
-    <t>10060371</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
-  </si>
-  <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.134)
+  (Session info: headless chrome=114.0.5735.199)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [df4ab85f155e9430323f6cb66a4babe5, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.134, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58477}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58477/devtoo..., se:cdpVersion: 114.0.5735.134, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: df4ab85f155e9430323f6cb66a4babe5</t>
-  </si>
-  <si>
-    <t>10060676</t>
-  </si>
-  <si>
-    <t>10060682</t>
-  </si>
-  <si>
-    <t>10060687</t>
+Command: [64e711f7fa0a3913576093aca97dbed1, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50090}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50090/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 64e711f7fa0a3913576093aca97dbed1</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=114.0.5735.199)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [64e711f7fa0a3913576093aca97dbed1, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50090}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50090/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 64e711f7fa0a3913576093aca97dbed1</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.LOC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>10071126</t>
+  </si>
+  <si>
+    <t>10071155</t>
+  </si>
+  <si>
+    <t>10071188</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.134)
+  (Session info: headless chrome=114.0.5735.199)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [facab0917339de18007dddc2a87937be, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.134, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55137}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55137/devtoo..., se:cdpVersion: 114.0.5735.134, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: facab0917339de18007dddc2a87937be</t>
-  </si>
-  <si>
-    <t>10060694</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.134)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5b52537e6fd2f14788217a9f5f600dde, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.134, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57503}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57503/devtoo..., se:cdpVersion: 114.0.5735.134, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5b52537e6fd2f14788217a9f5f600dde</t>
+Command: [22ed7b073708a28bf56644d55ce911db, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:59008}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59008/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 22ed7b073708a28bf56644d55ce911db</t>
   </si>
 </sst>
 </file>
@@ -284,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -296,14 +313,11 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +633,7 @@
     <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="40.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
@@ -638,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,80 +669,110 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
+      <c r="C2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
+      <c r="C3" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -736,15 +780,21 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -752,15 +802,21 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -768,15 +824,21 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -784,17 +846,21 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -802,17 +868,21 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -820,17 +890,21 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -838,52 +912,70 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,94 +984,154 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
+      <c r="C20" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,9 +1140,79 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="100">
   <si>
     <t>Service</t>
   </si>
@@ -110,6 +110,9 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>NA Process Result</t>
   </si>
   <si>
@@ -119,9 +122,51 @@
     <t>NA Fail Log</t>
   </si>
   <si>
+    <t>10146166</t>
+  </si>
+  <si>
+    <t>10165094</t>
+  </si>
+  <si>
+    <t>10165106</t>
+  </si>
+  <si>
+    <t>10165179</t>
+  </si>
+  <si>
+    <t>10165231</t>
+  </si>
+  <si>
+    <t>10165275</t>
+  </si>
+  <si>
+    <t>10165292</t>
+  </si>
+  <si>
+    <t>10165324</t>
+  </si>
+  <si>
+    <t>10165370</t>
+  </si>
+  <si>
+    <t>10165451</t>
+  </si>
+  <si>
+    <t>794643740667</t>
+  </si>
+  <si>
+    <t>10165558</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>10167505</t>
+  </si>
+  <si>
+    <t>10167521</t>
+  </si>
+  <si>
     <t>RTE</t>
   </si>
   <si>
@@ -131,111 +176,224 @@
     <t>Process</t>
   </si>
   <si>
-    <t>10167931</t>
-  </si>
-  <si>
-    <t>10169469</t>
-  </si>
-  <si>
-    <t>10169480</t>
-  </si>
-  <si>
-    <t>10169553</t>
-  </si>
-  <si>
-    <t>10169582</t>
-  </si>
-  <si>
-    <t>10169611</t>
-  </si>
-  <si>
-    <t>10169644</t>
-  </si>
-  <si>
-    <t>10169669</t>
-  </si>
-  <si>
-    <t>10169679</t>
-  </si>
-  <si>
-    <t>10169716</t>
-  </si>
-  <si>
-    <t>10169727</t>
-  </si>
-  <si>
-    <t>10169918</t>
-  </si>
-  <si>
-    <t>10169948</t>
-  </si>
-  <si>
-    <t>794644248189</t>
-  </si>
-  <si>
-    <t>10170039</t>
-  </si>
-  <si>
-    <t>10068344</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>10116372</t>
+  </si>
+  <si>
+    <t>10116375</t>
+  </si>
+  <si>
+    <t>10116378</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.141)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [142fe7fc8fae0e3b77c9a76916717408, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.141, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55336}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55336/devtoo..., se:cdpVersion: 116.0.5845.141, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 142fe7fc8fae0e3b77c9a76916717408</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
+  (Session info: headless chrome=116.0.5845.141)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [64e711f7fa0a3913576093aca97dbed1, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50090}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50090/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 64e711f7fa0a3913576093aca97dbed1</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
+Command: [142fe7fc8fae0e3b77c9a76916717408, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.141, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55336}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55336/devtoo..., se:cdpVersion: 116.0.5845.141, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 142fe7fc8fae0e3b77c9a76916717408</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_tools (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_operations (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: idJobOverview (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10116422</t>
   </si>
   <si>
     <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
-  (Session info: headless chrome=114.0.5735.199)
+  (Session info: headless chrome=116.0.5845.141)
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [64e711f7fa0a3913576093aca97dbed1, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50090}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50090/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 64e711f7fa0a3913576093aca97dbed1</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.LOC.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>10071126</t>
-  </si>
-  <si>
-    <t>10071155</t>
-  </si>
-  <si>
-    <t>10071188</t>
+Command: [b0141e02bafdd346d1f97b89eced984b, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.141, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59283}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59283/devtoo..., se:cdpVersion: 116.0.5845.141, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0141e02bafdd346d1f97b89eced984b</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
+  (Session info: headless chrome=116.0.5845.141)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [22ed7b073708a28bf56644d55ce911db, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:59008}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59008/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 22ed7b073708a28bf56644d55ce911db</t>
+Command: [b0141e02bafdd346d1f97b89eced984b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.141, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59283}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59283/devtoo..., se:cdpVersion: 116.0.5845.141, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0141e02bafdd346d1f97b89eced984b</t>
+  </si>
+  <si>
+    <t>10116430</t>
+  </si>
+  <si>
+    <t>10116435</t>
+  </si>
+  <si>
+    <t>10116438</t>
+  </si>
+  <si>
+    <t>10116442</t>
+  </si>
+  <si>
+    <t>10116446</t>
+  </si>
+  <si>
+    <t>10116448</t>
+  </si>
+  <si>
+    <t>10116449</t>
+  </si>
+  <si>
+    <t>10116451</t>
+  </si>
+  <si>
+    <t>10116453</t>
+  </si>
+  <si>
+    <t>794658860149</t>
+  </si>
+  <si>
+    <t>10116454</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: txtRouteWorkId (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: AdvancesSearch (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.141, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60501}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60501/devtoo..., se:cdpVersion: 116.0.5845.141, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2f8e27eef3136c6e6f34652c47377353</t>
+  </si>
+  <si>
+    <t>10116856</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (5a99637c53a831fe6d0ad36c38aac831)] -&gt; xpath: //*[@class="pickupService"]//span[contains(@ng-bind,"ServiceID")]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64941}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64941/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5a99637c53a831fe6d0ad36c38aac831</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.142)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5a99637c53a831fe6d0ad36c38aac831, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64941}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64941/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5a99637c53a831fe6d0ad36c38aac831</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5a99637c53a831fe6d0ad36c38aac831, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64941}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64941/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5a99637c53a831fe6d0ad36c38aac831</t>
+  </si>
+  <si>
+    <t>10116867</t>
+  </si>
+  <si>
+    <t>10116871</t>
+  </si>
+  <si>
+    <t>10116878</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.142)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f52c2b2544080868e57cf2d2d23996e2, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50452}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50452/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f52c2b2544080868e57cf2d2d23996e2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f52c2b2544080868e57cf2d2d23996e2, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50452}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50452/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f52c2b2544080868e57cf2d2d23996e2</t>
+  </si>
+  <si>
+    <t>10116895</t>
+  </si>
+  <si>
+    <t>10116904</t>
+  </si>
+  <si>
+    <t>10116905</t>
+  </si>
+  <si>
+    <t>10116908</t>
+  </si>
+  <si>
+    <t>10116924</t>
+  </si>
+  <si>
+    <t>10116929</t>
+  </si>
+  <si>
+    <t>10116932</t>
+  </si>
+  <si>
+    <t>10116939</t>
+  </si>
+  <si>
+    <t>10116945</t>
+  </si>
+  <si>
+    <t>794658987056</t>
+  </si>
+  <si>
+    <t>10116952</t>
+  </si>
+  <si>
+    <t>135215449</t>
+  </si>
+  <si>
+    <t>10116993</t>
   </si>
 </sst>
 </file>
@@ -301,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -318,6 +476,9 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +784,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,21 +831,17 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -692,21 +849,17 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -714,21 +867,17 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -736,21 +885,17 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -758,21 +903,17 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -780,21 +921,17 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -802,21 +939,17 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -824,21 +957,17 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -846,21 +975,17 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -868,21 +993,17 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -890,21 +1011,17 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -912,21 +1029,17 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -934,25 +1047,21 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -960,21 +1069,17 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -982,21 +1087,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -1004,21 +1105,17 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -1026,21 +1123,17 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -1048,45 +1141,37 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -1094,21 +1179,17 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1116,21 +1197,17 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -1138,81 +1215,65 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="116">
   <si>
     <t>Service</t>
   </si>
@@ -394,6 +394,62 @@
   </si>
   <si>
     <t>10116993</t>
+  </si>
+  <si>
+    <t>10117974</t>
+  </si>
+  <si>
+    <t>10118041</t>
+  </si>
+  <si>
+    <t>10118046</t>
+  </si>
+  <si>
+    <t>10118050</t>
+  </si>
+  <si>
+    <t>10118059</t>
+  </si>
+  <si>
+    <t>10118070</t>
+  </si>
+  <si>
+    <t>10118077</t>
+  </si>
+  <si>
+    <t>10118081</t>
+  </si>
+  <si>
+    <t>10118088</t>
+  </si>
+  <si>
+    <t>10118108</t>
+  </si>
+  <si>
+    <t>10118129</t>
+  </si>
+  <si>
+    <t>10118152</t>
+  </si>
+  <si>
+    <t>794659397220</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4fb340dd9329317d63e252b8a77319a0, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52521/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4fb340dd9329317d63e252b8a77319a0</t>
+  </si>
+  <si>
+    <t>135232141</t>
+  </si>
+  <si>
+    <t>10118173</t>
   </si>
 </sst>
 </file>
@@ -831,7 +887,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -849,7 +905,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -867,7 +923,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -885,7 +941,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -903,7 +959,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -921,7 +977,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
@@ -939,7 +995,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
@@ -957,7 +1013,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
@@ -975,7 +1031,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -993,7 +1049,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1011,7 +1067,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1029,7 +1085,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1047,11 +1103,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -1105,7 +1161,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1157,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
@@ -1215,7 +1271,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -1231,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="275">
   <si>
     <t>Service</t>
   </si>
@@ -396,60 +396,927 @@
     <t>10116993</t>
   </si>
   <si>
-    <t>10117974</t>
-  </si>
-  <si>
-    <t>10118041</t>
-  </si>
-  <si>
-    <t>10118046</t>
-  </si>
-  <si>
-    <t>10118050</t>
-  </si>
-  <si>
-    <t>10118059</t>
-  </si>
-  <si>
-    <t>10118070</t>
-  </si>
-  <si>
-    <t>10118077</t>
-  </si>
-  <si>
-    <t>10118081</t>
-  </si>
-  <si>
-    <t>10118088</t>
-  </si>
-  <si>
-    <t>10118108</t>
-  </si>
-  <si>
-    <t>10118129</t>
-  </si>
-  <si>
-    <t>10118152</t>
-  </si>
-  <si>
-    <t>794659397220</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=116.0.5845.142)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4fb340dd9329317d63e252b8a77319a0, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52521/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4fb340dd9329317d63e252b8a77319a0</t>
-  </si>
-  <si>
-    <t>135232141</t>
-  </si>
-  <si>
-    <t>10118173</t>
+    <t>Cannot invoke "String.equals(Object)" because "svc" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a19b9bb1f4c308e0090217e140578f28, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61090}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61090/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a19b9bb1f4c308e0090217e140578f28</t>
+  </si>
+  <si>
+    <t>10123623</t>
+  </si>
+  <si>
+    <t>10123641</t>
+  </si>
+  <si>
+    <t>10123659</t>
+  </si>
+  <si>
+    <t>10123660</t>
+  </si>
+  <si>
+    <t>10123662</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3d38b4dac208104ce2a2e907a458f9ef, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65244}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65244/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3d38b4dac208104ce2a2e907a458f9ef</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65244}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65244/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3d38b4dac208104ce2a2e907a458f9ef</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65244}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65244/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3d38b4dac208104ce2a2e907a458f9ef</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9decfa098d184324b006e36332078cf2, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50078}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50078/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9decfa098d184324b006e36332078cf2</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50078}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50078/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9decfa098d184324b006e36332078cf2</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50078}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50078/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9decfa098d184324b006e36332078cf2</t>
+  </si>
+  <si>
+    <t>10123765</t>
+  </si>
+  <si>
+    <t>10123772</t>
+  </si>
+  <si>
+    <t>10123774</t>
+  </si>
+  <si>
+    <t>10123780</t>
+  </si>
+  <si>
+    <t>10123794</t>
+  </si>
+  <si>
+    <t>10123803</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4d46139de9d49d29d19a0c7c96e7b7e4, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52420}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52420/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4d46139de9d49d29d19a0c7c96e7b7e4</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.LOC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>10125831</t>
+  </si>
+  <si>
+    <t>10125833</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b85980f750c6adad167bc080f2aef34b, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52048}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52048/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b85980f750c6adad167bc080f2aef34b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b85980f750c6adad167bc080f2aef34b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52048}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52048/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b85980f750c6adad167bc080f2aef34b</t>
+  </si>
+  <si>
+    <t>10125902</t>
+  </si>
+  <si>
+    <t>10125904</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ec93b7cb6e9fa823af67593df216ba49, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53199}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53199/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ec93b7cb6e9fa823af67593df216ba49</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ec93b7cb6e9fa823af67593df216ba49, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53199}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53199/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ec93b7cb6e9fa823af67593df216ba49</t>
+  </si>
+  <si>
+    <t>10125915</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e0e31839af9a72674110103cc46f38d2, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63013}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63013/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e0e31839af9a72674110103cc46f38d2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e0e31839af9a72674110103cc46f38d2, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63013}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63013/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e0e31839af9a72674110103cc46f38d2</t>
+  </si>
+  <si>
+    <t>10126069</t>
+  </si>
+  <si>
+    <t>10126070</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8e633e42de64f17556c6dc472aca72a1, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62562}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62562/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8e633e42de64f17556c6dc472aca72a1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8e633e42de64f17556c6dc472aca72a1, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62562}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62562/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8e633e42de64f17556c6dc472aca72a1</t>
+  </si>
+  <si>
+    <t>10126106</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64645}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64645/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86678bb738354b36ee4e51a641a0116c</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [86678bb738354b36ee4e51a641a0116c, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64645}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64645/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86678bb738354b36ee4e51a641a0116c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [86678bb738354b36ee4e51a641a0116c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64645}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64645/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86678bb738354b36ee4e51a641a0116c</t>
+  </si>
+  <si>
+    <t>10126116</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [93d7075147c5003ad124d710dc920660, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65287}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65287/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 93d7075147c5003ad124d710dc920660</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [93d7075147c5003ad124d710dc920660, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65287}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65287/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 93d7075147c5003ad124d710dc920660</t>
+  </si>
+  <si>
+    <t>10126128</t>
+  </si>
+  <si>
+    <t>10126129</t>
+  </si>
+  <si>
+    <t>10126133</t>
+  </si>
+  <si>
+    <t>10126144</t>
+  </si>
+  <si>
+    <t>10126150</t>
+  </si>
+  <si>
+    <t>10126155</t>
+  </si>
+  <si>
+    <t>794662484619</t>
+  </si>
+  <si>
+    <t>10126161</t>
+  </si>
+  <si>
+    <t>135321216</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [81681255a63e73bae2b22eb5bf23838c, clickElement {id=B0EF67E2CE05F6A5A547DB61AC5EFA10_element_15779}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49424}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49424/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (81681255a63e73bae2b22eb5bf23838c)] -&gt; id: GreyTick]
+Session ID: 81681255a63e73bae2b22eb5bf23838c</t>
+  </si>
+  <si>
+    <t>10126975</t>
+  </si>
+  <si>
+    <t>10126981</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64419}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64419/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1cc30e8d3d08be89edb4a4a28a9ac89e</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1cc30e8d3d08be89edb4a4a28a9ac89e, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64419}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64419/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1cc30e8d3d08be89edb4a4a28a9ac89e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1cc30e8d3d08be89edb4a4a28a9ac89e, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64419}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64419/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1cc30e8d3d08be89edb4a4a28a9ac89e</t>
+  </si>
+  <si>
+    <t>10127012</t>
+  </si>
+  <si>
+    <t>10127021</t>
+  </si>
+  <si>
+    <t>10127028</t>
+  </si>
+  <si>
+    <t>10127029</t>
+  </si>
+  <si>
+    <t>10127039</t>
+  </si>
+  <si>
+    <t>10127053</t>
+  </si>
+  <si>
+    <t>10127059</t>
+  </si>
+  <si>
+    <t>Parts not available</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5f05d1ccd0c043b0643fb00cf64f74bb, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57884}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57884/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5f05d1ccd0c043b0643fb00cf64f74bb</t>
+  </si>
+  <si>
+    <t>135331686</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: GreyTick (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10127126</t>
+  </si>
+  <si>
+    <t>10127135</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9fc0c1211de196c238e03318532cdf91, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60092}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60092/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9fc0c1211de196c238e03318532cdf91</t>
+  </si>
+  <si>
+    <t>10127145</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c76ab4f53600a9edd5002faf02d73c6f, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53016}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53016/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c76ab4f53600a9edd5002faf02d73c6f</t>
+  </si>
+  <si>
+    <t>10127183</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 30 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55764}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55764/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8cd583b5e81a653187425c2c714323ff</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8cd583b5e81a653187425c2c714323ff, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55764}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55764/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8cd583b5e81a653187425c2c714323ff</t>
+  </si>
+  <si>
+    <t>10127533</t>
+  </si>
+  <si>
+    <t>10127534</t>
+  </si>
+  <si>
+    <t>10127538</t>
+  </si>
+  <si>
+    <t>10127539</t>
+  </si>
+  <si>
+    <t>10127543</t>
+  </si>
+  <si>
+    <t>10127547</t>
+  </si>
+  <si>
+    <t>10127548</t>
+  </si>
+  <si>
+    <t>10127662</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0b218db369f9f492a45c8f95cdd5e95e, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58920}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58920/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0b218db369f9f492a45c8f95cdd5e95e</t>
+  </si>
+  <si>
+    <t>10127669</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [65e4be79f9c5fd99fb7feb2a02184920, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52009}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52009/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 65e4be79f9c5fd99fb7feb2a02184920</t>
+  </si>
+  <si>
+    <t>10129432</t>
+  </si>
+  <si>
+    <t>10129448</t>
+  </si>
+  <si>
+    <t>10129489</t>
+  </si>
+  <si>
+    <t>10129513</t>
+  </si>
+  <si>
+    <t>10129529</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6521cb30824b04cf4568e048fd03e4cc, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56516}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56516/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6521cb30824b04cf4568e048fd03e4cc</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56516}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56516/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6521cb30824b04cf4568e048fd03e4cc</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56516}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56516/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6521cb30824b04cf4568e048fd03e4cc</t>
+  </si>
+  <si>
+    <t>10130228</t>
+  </si>
+  <si>
+    <t>10130236</t>
+  </si>
+  <si>
+    <t>10130251</t>
+  </si>
+  <si>
+    <t>10130255</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3b4dbb4fba1b1356f7a14a6252248926, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63878}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63878/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3b4dbb4fba1b1356f7a14a6252248926</t>
+  </si>
+  <si>
+    <t>10131982</t>
+  </si>
+  <si>
+    <t>10131983</t>
+  </si>
+  <si>
+    <t>10131986</t>
+  </si>
+  <si>
+    <t>10131993</t>
+  </si>
+  <si>
+    <t>10132019</t>
+  </si>
+  <si>
+    <t>10132025</t>
+  </si>
+  <si>
+    <t>10132093</t>
+  </si>
+  <si>
+    <t>10132097</t>
+  </si>
+  <si>
+    <t>10132104</t>
+  </si>
+  <si>
+    <t>script timeout
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [567d4d1c4bdfd75e9eb03b710188347b, executeScript {script=arguments[0].click();, args=[{element-6066-11e4-a52e-4f735466cecf=39B5EF3A4722AE2964E569682639D798_element_1157}]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50453}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50453/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 567d4d1c4bdfd75e9eb03b710188347b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [567d4d1c4bdfd75e9eb03b710188347b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50453}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50453/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 567d4d1c4bdfd75e9eb03b710188347b</t>
+  </si>
+  <si>
+    <t>10132126</t>
+  </si>
+  <si>
+    <t>10132135</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e891f6c308d86faa7d919c218b032d3a, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59335}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59335/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e891f6c308d86faa7d919c218b032d3a</t>
+  </si>
+  <si>
+    <t>10132147</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [489c0f8958dbbd870410c6b48f9d222b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60321}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60321/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 489c0f8958dbbd870410c6b48f9d222b</t>
+  </si>
+  <si>
+    <t>10132397</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b61d170277c1d7750cfb41b388825bed, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61107}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61107/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b61d170277c1d7750cfb41b388825bed</t>
+  </si>
+  <si>
+    <t>10132409</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e65ac2125b92c1f1fd03df785986d96d, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58284}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58284/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e65ac2125b92c1f1fd03df785986d96d</t>
+  </si>
+  <si>
+    <t>10132460</t>
+  </si>
+  <si>
+    <t>10132689</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3af846e5f01606cbe098a602c6c3f60c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60371}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60371/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3af846e5f01606cbe098a602c6c3f60c</t>
+  </si>
+  <si>
+    <t>10133300</t>
+  </si>
+  <si>
+    <t>10133315</t>
+  </si>
+  <si>
+    <t>10133326</t>
+  </si>
+  <si>
+    <t>10133336</t>
+  </si>
+  <si>
+    <t>10133344</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63650}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63650/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a1d6f1e20a1a2d4bd464ddc9f3cf368b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a1d6f1e20a1a2d4bd464ddc9f3cf368b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63650}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63650/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a1d6f1e20a1a2d4bd464ddc9f3cf368b</t>
+  </si>
+  <si>
+    <t>10133375</t>
+  </si>
+  <si>
+    <t>10133377</t>
+  </si>
+  <si>
+    <t>10133381</t>
+  </si>
+  <si>
+    <t>10133401</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a1b3ad564b394404ab0ef697ff0b10db, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52304}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:52304/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a1b3ad564b394404ab0ef697ff0b10db</t>
+  </si>
+  <si>
+    <t>10133428</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e0065c858eb4d6b0753229a2ce951a46, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53399}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53399/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e0065c858eb4d6b0753229a2ce951a46</t>
+  </si>
+  <si>
+    <t>10133457</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f35b0582c73d33dedbfb6a9c2d570309, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55187}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55187/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f35b0582c73d33dedbfb6a9c2d570309</t>
+  </si>
+  <si>
+    <t>10133746</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [db7c5975b8ffa4759c378e5a031c5b3f, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57268}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57268/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: db7c5975b8ffa4759c378e5a031c5b3f</t>
+  </si>
+  <si>
+    <t>10134734</t>
+  </si>
+  <si>
+    <t>10134756</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57212}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57212/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ca7de9f6b6d628ad3f9c72c49de6ea13</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ca7de9f6b6d628ad3f9c72c49de6ea13, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57212}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57212/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ca7de9f6b6d628ad3f9c72c49de6ea13</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ca7de9f6b6d628ad3f9c72c49de6ea13, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57212}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57212/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ca7de9f6b6d628ad3f9c72c49de6ea13</t>
+  </si>
+  <si>
+    <t>10135192</t>
+  </si>
+  <si>
+    <t>10135210</t>
+  </si>
+  <si>
+    <t>10135225</t>
+  </si>
+  <si>
+    <t>10135262</t>
+  </si>
+  <si>
+    <t>10135277</t>
+  </si>
+  <si>
+    <t>10135280</t>
+  </si>
+  <si>
+    <t>10135296</t>
+  </si>
+  <si>
+    <t>10135307</t>
+  </si>
+  <si>
+    <t>10135315</t>
+  </si>
+  <si>
+    <t>10135325</t>
+  </si>
+  <si>
+    <t>794665837521</t>
+  </si>
+  <si>
+    <t>10135333</t>
+  </si>
+  <si>
+    <t>135415755</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fded2803faee1cee57f30c934a4746d0, clickElement {id=B8FFB433F072673F64C4C96D1D141E4A_element_26147}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59126}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59126/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (fded2803faee1cee57f30c934a4746d0)] -&gt; id: GreyTick]
+Session ID: fded2803faee1cee57f30c934a4746d0</t>
+  </si>
+  <si>
+    <t>10137146</t>
+  </si>
+  <si>
+    <t>10137152</t>
+  </si>
+  <si>
+    <t>10137157</t>
+  </si>
+  <si>
+    <t>10137168</t>
+  </si>
+  <si>
+    <t>10137171</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a254dd38806df2da31af4dc5b9e730f7, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49430/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a254dd38806df2da31af4dc5b9e730f7</t>
+  </si>
+  <si>
+    <t>10137208</t>
+  </si>
+  <si>
+    <t>10137276</t>
+  </si>
+  <si>
+    <t>10137282</t>
+  </si>
+  <si>
+    <t>10137284</t>
+  </si>
+  <si>
+    <t>10137291</t>
+  </si>
+  <si>
+    <t>10137296</t>
+  </si>
+  <si>
+    <t>10137314</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bade37cf1a15fb2906352ef0ac49d706, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63049}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63049/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bade37cf1a15fb2906352ef0ac49d706</t>
   </si>
 </sst>
 </file>
@@ -887,11 +1754,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -905,11 +1772,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -923,11 +1790,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -941,11 +1808,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -959,11 +1826,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -977,7 +1844,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
@@ -995,11 +1862,11 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -1013,14 +1880,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1031,14 +1898,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1049,14 +1916,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1067,14 +1934,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1085,14 +1952,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1103,14 +1970,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1125,7 +1992,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1161,7 +2028,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1179,7 +2046,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -1213,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
@@ -1287,14 +2154,14 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1307,10 +2174,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1323,10 +2190,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="275">
   <si>
     <t>Service</t>
   </si>
@@ -1299,24 +1299,45 @@
     <t>10137284</t>
   </si>
   <si>
-    <t>10137291</t>
-  </si>
-  <si>
-    <t>10137296</t>
-  </si>
-  <si>
-    <t>10137314</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=117.0.5938.92)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bade37cf1a15fb2906352ef0ac49d706, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63049}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63049/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bade37cf1a15fb2906352ef0ac49d706</t>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.132)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0f53a205c2d2c172fd8e66ab8bedc6ee, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64469}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64469/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0f53a205c2d2c172fd8e66ab8bedc6ee</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: chrome=117.0.5938.132)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bbda5a9c17cf079861657d9da3ba9af6, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61324}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61324/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bbda5a9c17cf079861657d9da3ba9af6</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: chrome=117.0.5938.132)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [102597bf12bb8adb6a832bfb05e5607f, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50118}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50118/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 102597bf12bb8adb6a832bfb05e5607f</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: chrome=117.0.5938.132)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fa5cddd11f7555594d5bbfef634c76c3, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53940}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53940/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fa5cddd11f7555594d5bbfef634c76c3</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1779,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1776,7 +1797,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1794,7 +1815,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1812,7 +1833,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1826,11 +1847,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -1880,14 +1901,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1902,10 +1923,10 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1920,10 +1941,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1938,10 +1959,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1956,10 +1977,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1974,10 +1995,10 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1992,7 +2013,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -2046,7 +2067,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -2138,7 +2159,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2158,10 +2179,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2174,10 +2195,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2190,10 +2211,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5895" uniqueCount="441">
   <si>
     <t>Service</t>
   </si>
@@ -1641,6 +1641,94 @@
   </si>
   <si>
     <t>136196600</t>
+  </si>
+  <si>
+    <t>10206429</t>
+  </si>
+  <si>
+    <t>10206431</t>
+  </si>
+  <si>
+    <t>10206456</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=119.0.6045.160)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.42', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.160, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51180}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9770ce8507afbfe0f4c25991d37e95e9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.160)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.42', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.160, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51180}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9770ce8507afbfe0f4c25991d37e95e9
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10206467</t>
+  </si>
+  <si>
+    <t>10206476</t>
+  </si>
+  <si>
+    <t>10206488</t>
+  </si>
+  <si>
+    <t>10206501</t>
+  </si>
+  <si>
+    <t>10206513</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.160)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.160, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59104}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 80189f8559bd5acc855d3fd79da5827d
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10206538</t>
+  </si>
+  <si>
+    <t>10206541</t>
+  </si>
+  <si>
+    <t>10206611</t>
+  </si>
+  <si>
+    <t>10206615</t>
+  </si>
+  <si>
+    <t>10206625</t>
+  </si>
+  <si>
+    <t>136212984</t>
+  </si>
+  <si>
+    <t>10212900</t>
+  </si>
+  <si>
+    <t>10212902</t>
+  </si>
+  <si>
+    <t>10212909</t>
+  </si>
+  <si>
+    <t>10212921</t>
+  </si>
+  <si>
+    <t>136282176</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2163,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2093,7 +2181,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -2111,7 +2199,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2129,7 +2217,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -2147,7 +2235,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -2165,11 +2253,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -2187,7 +2275,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -2205,7 +2293,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2219,7 +2307,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -2237,7 +2325,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -2255,7 +2343,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -2273,7 +2361,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -2291,7 +2379,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -2473,7 +2561,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5895" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6480" uniqueCount="466">
   <si>
     <t>Service</t>
   </si>
@@ -1729,6 +1729,105 @@
   </si>
   <si>
     <t>136282176</t>
+  </si>
+  <si>
+    <t>10214055</t>
+  </si>
+  <si>
+    <t>10214066</t>
+  </si>
+  <si>
+    <t>10214092</t>
+  </si>
+  <si>
+    <t>10214123</t>
+  </si>
+  <si>
+    <t>10214198</t>
+  </si>
+  <si>
+    <t>10214207</t>
+  </si>
+  <si>
+    <t>10214214</t>
+  </si>
+  <si>
+    <t>10214223</t>
+  </si>
+  <si>
+    <t>136297378</t>
+  </si>
+  <si>
+    <t>10214238</t>
+  </si>
+  <si>
+    <t>10214246</t>
+  </si>
+  <si>
+    <t>10216190</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.160)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.160, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56069}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f162eab0ad6d8c1d80412f2d92a87746
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10217048</t>
+  </si>
+  <si>
+    <t>10217059</t>
+  </si>
+  <si>
+    <t>10217096</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.199)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.72', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.199, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62216}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b6f751a9846152e592d51e9571ec5e79
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10217482</t>
+  </si>
+  <si>
+    <t>10217491</t>
+  </si>
+  <si>
+    <t>10217516</t>
+  </si>
+  <si>
+    <t>10217523</t>
+  </si>
+  <si>
+    <t>10217539</t>
+  </si>
+  <si>
+    <t>10217544</t>
+  </si>
+  <si>
+    <t>10217557</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.199)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.22', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.199, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55941}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 272919927ff227e9c1f172d4db2bb85d
+*** Element info: {Using=id, value=lblServiceID}</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2262,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2181,7 +2280,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -2199,11 +2298,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2217,7 +2316,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -2325,7 +2424,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -2343,7 +2442,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -2361,14 +2460,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2379,14 +2478,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2561,14 +2660,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2583,10 +2682,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2604,7 +2703,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6480" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6710" uniqueCount="496">
   <si>
     <t>Service</t>
   </si>
@@ -1828,6 +1828,120 @@
 Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.199, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55941}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 272919927ff227e9c1f172d4db2bb85d
 *** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10218453</t>
+  </si>
+  <si>
+    <t>10218457</t>
+  </si>
+  <si>
+    <t>10218467</t>
+  </si>
+  <si>
+    <t>10218475</t>
+  </si>
+  <si>
+    <t>10218521</t>
+  </si>
+  <si>
+    <t>10218526</t>
+  </si>
+  <si>
+    <t>10218600</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.199)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.26', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.199, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56799}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bea3aa9137144e3b64089285f98c5ec7
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10218606</t>
+  </si>
+  <si>
+    <t>136347778</t>
+  </si>
+  <si>
+    <t>10218820</t>
+  </si>
+  <si>
+    <t>10218826</t>
+  </si>
+  <si>
+    <t>10218840</t>
+  </si>
+  <si>
+    <t>10218844</t>
+  </si>
+  <si>
+    <t>10218858</t>
+  </si>
+  <si>
+    <t>10218868</t>
+  </si>
+  <si>
+    <t>10218879</t>
+  </si>
+  <si>
+    <t>10221568</t>
+  </si>
+  <si>
+    <t>10221569</t>
+  </si>
+  <si>
+    <t>10221579</t>
+  </si>
+  <si>
+    <t>10221599</t>
+  </si>
+  <si>
+    <t>10221605</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.200)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.29', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.200, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53138}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cac3fd6165c66cbed9d8cab7df90ac62
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10221617</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.200)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.29', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.200, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58698}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9e620668373f11d91f466650b7e55573
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10221733</t>
+  </si>
+  <si>
+    <t>10221741</t>
+  </si>
+  <si>
+    <t>10221744</t>
+  </si>
+  <si>
+    <t>10221749</t>
+  </si>
+  <si>
+    <t>136382364</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2376,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2280,7 +2394,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -2298,14 +2412,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2316,7 +2430,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -2424,14 +2538,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2442,14 +2556,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>490</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2460,14 +2574,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2478,14 +2592,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2660,11 +2774,11 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>147</v>
@@ -2682,7 +2796,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6710" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="509">
   <si>
     <t>Service</t>
   </si>
@@ -1942,6 +1942,61 @@
   </si>
   <si>
     <t>136382364</t>
+  </si>
+  <si>
+    <t>10223075</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.200)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.200, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59709}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 79cab587ed4151dfc644fdef3c00d341
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10223102</t>
+  </si>
+  <si>
+    <t>10223105</t>
+  </si>
+  <si>
+    <t>10223119</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=119.0.6045.200)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 119.0.6045.200, chrome: {chromedriverVersion: 119.0.6045.105 (38c72552c5e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60496}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b7e61e79fe2d4e962a4e6aeb1522a4a5
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10223226</t>
+  </si>
+  <si>
+    <t>10223231</t>
+  </si>
+  <si>
+    <t>10223233</t>
+  </si>
+  <si>
+    <t>10223246</t>
+  </si>
+  <si>
+    <t>10223256</t>
+  </si>
+  <si>
+    <t>136398862</t>
+  </si>
+  <si>
+    <t>10223388</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2431,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2394,7 +2449,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -2412,7 +2467,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2430,14 +2485,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2538,14 +2593,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>501</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2556,14 +2611,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2574,14 +2629,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2592,14 +2647,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2774,7 +2829,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7480" uniqueCount="614">
   <si>
     <t>Service</t>
   </si>
@@ -1997,6 +1997,443 @@
   </si>
   <si>
     <t>10223388</t>
+  </si>
+  <si>
+    <t>10224407</t>
+  </si>
+  <si>
+    <t>10224412</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.62, chrome: {chromedriverVersion: 120.0.6099.62 (93ab19d804d4..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55026}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 02684f76fad24f55361da1bf7a2fcca0
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10224414</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.62, chrome: {chromedriverVersion: 120.0.6099.62 (93ab19d804d4..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64769}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8c97d81856e57cd4428eb7b4ec2c8769
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10224512</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.NATenderTo3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.62, chrome: {chromedriverVersion: 120.0.6099.62 (93ab19d804d4..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49694}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a2f3af8993ce1255b5480783dcd2c457
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10224593</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.62, chrome: {chromedriverVersion: 120.0.6099.62 (93ab19d804d4..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58796}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: eddbd7ddbf0a884daeabd0ae3410ae51
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10224606</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.62, chrome: {chromedriverVersion: 120.0.6099.62 (93ab19d804d4..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58113}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1a15b5f3ef45b49f26942ca1ff1a937b
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>136413806</t>
+  </si>
+  <si>
+    <t>10224714</t>
+  </si>
+  <si>
+    <t>10224716</t>
+  </si>
+  <si>
+    <t>10224717</t>
+  </si>
+  <si>
+    <t>10224721</t>
+  </si>
+  <si>
+    <t>10225016</t>
+  </si>
+  <si>
+    <t>10225019</t>
+  </si>
+  <si>
+    <t>10225023</t>
+  </si>
+  <si>
+    <t>10225025</t>
+  </si>
+  <si>
+    <t>10225027</t>
+  </si>
+  <si>
+    <t>10225031</t>
+  </si>
+  <si>
+    <t>10225034</t>
+  </si>
+  <si>
+    <t>136422198</t>
+  </si>
+  <si>
+    <t>10225077</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.40', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53763}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 49f843a14190505e449478ad1225dfba
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10225083</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.40', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61652}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e2a77f5af0f003c3b7732f5cfd34a38d
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10225088</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome-headless-shell on WINDOWS (4bca004eeab2f2c614265b2d8b668b0d)] -&gt; id: lblStages] (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.40', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55447}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4bca004eeab2f2c614265b2d8b668b0d</t>
+  </si>
+  <si>
+    <t>10225089</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.xpath: //*[@class='ajax-loadernew'] (tried for 7 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.40', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55447}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4bca004eeab2f2c614265b2d8b668b0d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.40', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55447}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4bca004eeab2f2c614265b2d8b668b0d
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10225105</t>
+  </si>
+  <si>
+    <t>10225106</t>
+  </si>
+  <si>
+    <t>10225107</t>
+  </si>
+  <si>
+    <t>10225108</t>
+  </si>
+  <si>
+    <t>10225153</t>
+  </si>
+  <si>
+    <t>10225156</t>
+  </si>
+  <si>
+    <t>10225158</t>
+  </si>
+  <si>
+    <t>10225160</t>
+  </si>
+  <si>
+    <t>10225162</t>
+  </si>
+  <si>
+    <t>10225164</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.43', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64018}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 33808a7c6d50dc2db9b91ebe5e0c60ac
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10225170</t>
+  </si>
+  <si>
+    <t>10225171</t>
+  </si>
+  <si>
+    <t>10225172</t>
+  </si>
+  <si>
+    <t>10228615</t>
+  </si>
+  <si>
+    <t>10228630</t>
+  </si>
+  <si>
+    <t>10228632</t>
+  </si>
+  <si>
+    <t>10228637</t>
+  </si>
+  <si>
+    <t>10228642</t>
+  </si>
+  <si>
+    <t>10228650</t>
+  </si>
+  <si>
+    <t>10228664</t>
+  </si>
+  <si>
+    <t>10228676</t>
+  </si>
+  <si>
+    <t>136463867</t>
+  </si>
+  <si>
+    <t>10229280</t>
+  </si>
+  <si>
+    <t>10229310</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.16', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63646}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fd74c7ce246499face5dd0892b8b0b47
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10229389</t>
+  </si>
+  <si>
+    <t>10229394</t>
+  </si>
+  <si>
+    <t>10229399</t>
+  </si>
+  <si>
+    <t>10229400</t>
+  </si>
+  <si>
+    <t>10229410</t>
+  </si>
+  <si>
+    <t>10229421</t>
+  </si>
+  <si>
+    <t>10229429</t>
+  </si>
+  <si>
+    <t>10229436</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.16', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.71, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57822}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a82f4b8951c32da5b92a3d809012d563
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>136473097</t>
+  </si>
+  <si>
+    <t>10230265</t>
+  </si>
+  <si>
+    <t>10230268</t>
+  </si>
+  <si>
+    <t>10230291</t>
+  </si>
+  <si>
+    <t>10230533</t>
+  </si>
+  <si>
+    <t>10230536</t>
+  </si>
+  <si>
+    <t>10230537</t>
+  </si>
+  <si>
+    <t>10230542</t>
+  </si>
+  <si>
+    <t>10230543</t>
+  </si>
+  <si>
+    <t>10230557</t>
+  </si>
+  <si>
+    <t>10230564</t>
+  </si>
+  <si>
+    <t>136489285</t>
+  </si>
+  <si>
+    <t>10230649</t>
+  </si>
+  <si>
+    <t>10232520</t>
+  </si>
+  <si>
+    <t>10232521</t>
+  </si>
+  <si>
+    <t>10232523</t>
+  </si>
+  <si>
+    <t>10232524</t>
+  </si>
+  <si>
+    <t>10232525</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.72)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.72, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61860}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c6d87e7920ec4b782efdee24597a6435
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10232620</t>
+  </si>
+  <si>
+    <t>10232622</t>
+  </si>
+  <si>
+    <t>10232623</t>
+  </si>
+  <si>
+    <t>10232624</t>
+  </si>
+  <si>
+    <t>136512857</t>
+  </si>
+  <si>
+    <t>10233282</t>
+  </si>
+  <si>
+    <t>10233302</t>
+  </si>
+  <si>
+    <t>10233304</t>
+  </si>
+  <si>
+    <t>10233307</t>
+  </si>
+  <si>
+    <t>10233311</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.72)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.53', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.72, chrome: {chromedriverVersion: 120.0.6099.71 (9729082fe617..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51958}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 12e209dfd1ed08a42dff34627d47a1d6
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10233319</t>
+  </si>
+  <si>
+    <t>10233349</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.72)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.53', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.72, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50500}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cfd137e1c910ce2284a045fe68b40d3e
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10233417</t>
+  </si>
+  <si>
+    <t>136522320</t>
+  </si>
+  <si>
+    <t>10233419</t>
   </si>
 </sst>
 </file>
@@ -2431,14 +2868,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>602</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2449,14 +2886,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>603</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2467,7 +2904,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2485,7 +2922,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -2593,14 +3030,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>608</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2611,14 +3048,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>504</v>
+        <v>609</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>501</v>
+        <v>607</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2629,14 +3066,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2647,14 +3084,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>611</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>607</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2708,7 +3145,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2726,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2741,7 +3178,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -2829,7 +3266,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7480" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7594" uniqueCount="633">
   <si>
     <t>Service</t>
   </si>
@@ -2434,6 +2434,71 @@
   </si>
   <si>
     <t>10233419</t>
+  </si>
+  <si>
+    <t>10234091</t>
+  </si>
+  <si>
+    <t>10234108</t>
+  </si>
+  <si>
+    <t>10234115</t>
+  </si>
+  <si>
+    <t>10234116</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.110)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.37', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.110, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62982}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 38ad931a7ef8dd60159bc4e7d91db684
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10234121</t>
+  </si>
+  <si>
+    <t>10234212</t>
+  </si>
+  <si>
+    <t>10234214</t>
+  </si>
+  <si>
+    <t>10234216</t>
+  </si>
+  <si>
+    <t>136532103</t>
+  </si>
+  <si>
+    <t>10234686</t>
+  </si>
+  <si>
+    <t>10234687</t>
+  </si>
+  <si>
+    <t>10234689</t>
+  </si>
+  <si>
+    <t>10234691</t>
+  </si>
+  <si>
+    <t>10234708</t>
+  </si>
+  <si>
+    <t>10234710</t>
+  </si>
+  <si>
+    <t>10234717</t>
+  </si>
+  <si>
+    <t>10234718</t>
+  </si>
+  <si>
+    <t>136546157</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2933,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2886,7 +2951,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -2904,7 +2969,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -2922,7 +2987,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -3030,7 +3095,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -3048,14 +3113,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3066,14 +3131,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3084,14 +3149,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3266,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7594" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="643">
   <si>
     <t>Service</t>
   </si>
@@ -2499,6 +2499,57 @@
   </si>
   <si>
     <t>136546157</t>
+  </si>
+  <si>
+    <t>10235404</t>
+  </si>
+  <si>
+    <t>10235405</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61430}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 76a113773f88e0ab1233f720ea858aff</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61430}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 76a113773f88e0ab1233f720ea858aff
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49914}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 62be61e9608eb5d51b9ac6d1db649f48
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>136554121</t>
+  </si>
+  <si>
+    <t>10235692</t>
+  </si>
+  <si>
+    <t>10235719</t>
+  </si>
+  <si>
+    <t>10235723</t>
+  </si>
+  <si>
+    <t>10235725</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2984,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -2951,14 +3002,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>635</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2973,7 +3024,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -2991,7 +3042,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -3095,14 +3146,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>637</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3113,14 +3164,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3131,14 +3182,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3149,14 +3200,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3331,7 +3382,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -3374,7 +3425,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="661">
   <si>
     <t>Service</t>
   </si>
@@ -2550,6 +2550,81 @@
   </si>
   <si>
     <t>10235725</t>
+  </si>
+  <si>
+    <t>10237937</t>
+  </si>
+  <si>
+    <t>10237954</t>
+  </si>
+  <si>
+    <t>10237958</t>
+  </si>
+  <si>
+    <t>10237964</t>
+  </si>
+  <si>
+    <t>10237970</t>
+  </si>
+  <si>
+    <t>10237976</t>
+  </si>
+  <si>
+    <t>10237977</t>
+  </si>
+  <si>
+    <t>136578121</t>
+  </si>
+  <si>
+    <t>10237979</t>
+  </si>
+  <si>
+    <t>10237998</t>
+  </si>
+  <si>
+    <t>10238001</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.31', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49837}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4085bcb295ce68057db008a2837eecc1
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10238496</t>
+  </si>
+  <si>
+    <t>10238538</t>
+  </si>
+  <si>
+    <t>10238539</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="modal-dialog modal-lg"] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61656}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c19fba776ce6cd4ffa63669b1e5996ed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=120.0.6099.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61656}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c19fba776ce6cd4ffa63669b1e5996ed
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10238540</t>
   </si>
 </sst>
 </file>
@@ -2984,7 +3059,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -3002,11 +3077,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>635</v>
@@ -3020,11 +3095,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -3038,11 +3113,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -3146,14 +3221,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3164,7 +3239,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -3182,7 +3257,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -3200,7 +3275,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -3258,10 +3333,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>658</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3382,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="682">
   <si>
     <t>Service</t>
   </si>
@@ -2625,6 +2625,77 @@
   </si>
   <si>
     <t>10238540</t>
+  </si>
+  <si>
+    <t>10238683</t>
+  </si>
+  <si>
+    <t>10238684</t>
+  </si>
+  <si>
+    <t>10238685</t>
+  </si>
+  <si>
+    <t>10238686</t>
+  </si>
+  <si>
+    <t>10238716</t>
+  </si>
+  <si>
+    <t>10238717</t>
+  </si>
+  <si>
+    <t>136588074</t>
+  </si>
+  <si>
+    <t>10238786</t>
+  </si>
+  <si>
+    <t>10238829</t>
+  </si>
+  <si>
+    <t>10238875</t>
+  </si>
+  <si>
+    <t>10238877</t>
+  </si>
+  <si>
+    <t>10238879</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.129, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58921}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 47703067db7eb68eb886b75cbe3a0fa9
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10238884</t>
+  </si>
+  <si>
+    <t>10238885</t>
+  </si>
+  <si>
+    <t>10238899</t>
+  </si>
+  <si>
+    <t>10238900</t>
+  </si>
+  <si>
+    <t>10238903</t>
+  </si>
+  <si>
+    <t>10238906</t>
+  </si>
+  <si>
+    <t>10238908</t>
+  </si>
+  <si>
+    <t>10238914</t>
   </si>
 </sst>
 </file>
@@ -3059,14 +3130,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3077,14 +3148,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>635</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3095,7 +3166,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -3113,7 +3184,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -3221,14 +3292,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3239,14 +3310,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3257,14 +3328,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3275,14 +3346,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3333,7 +3404,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>658</v>
@@ -3457,7 +3528,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8112" uniqueCount="717">
   <si>
     <t>Service</t>
   </si>
@@ -2696,6 +2696,196 @@
   </si>
   <si>
     <t>10238914</t>
+  </si>
+  <si>
+    <t>10239783</t>
+  </si>
+  <si>
+    <t>10239785</t>
+  </si>
+  <si>
+    <t>10239790</t>
+  </si>
+  <si>
+    <t>10239791</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65300}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f63b34d008dae14134cd192282edbdc9
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239820</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63935}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a58470d7a423bab1eddb31856e0d89bd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63935}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a58470d7a423bab1eddb31856e0d89bd
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239867</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49529}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0680f7826512d94dd41832a7be1d1fa9
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239876</t>
+  </si>
+  <si>
+    <t>10239880</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58341}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 986b9e46a2932f32791e4c2ec1b9f8ac
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54671}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d79f71bc898b78325417aa5a24b63dc4
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239888</t>
+  </si>
+  <si>
+    <t>10239894</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62098}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9e30d83a180b136bd19acb95c6957101
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239904</t>
+  </si>
+  <si>
+    <t>10239910</t>
+  </si>
+  <si>
+    <t>10239913</t>
+  </si>
+  <si>
+    <t>10239920</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51479}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 142b5189da12088a08eef83c19237bc7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51479}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 142b5189da12088a08eef83c19237bc7
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10239975</t>
+  </si>
+  <si>
+    <t>element not interactable: https://testdevna.nglog.com/TaskLog has no size and location
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60328}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 464a1670352f605194d2014e6b221a36</t>
+  </si>
+  <si>
+    <t>10239988</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.17', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58282}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e92ca8ed5be11312d23177ae11763ce9
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10240140</t>
+  </si>
+  <si>
+    <t>10240182</t>
+  </si>
+  <si>
+    <t>10240197</t>
+  </si>
+  <si>
+    <t>10240204</t>
+  </si>
+  <si>
+    <t>10240218</t>
+  </si>
+  <si>
+    <t>136598488</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (a877f57c0631f185a54ab0cbc4424a0d)] -&gt; id: GreyTick] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.76', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a877f57c0631f185a54ab0cbc4424a0d</t>
+  </si>
+  <si>
+    <t>10240223</t>
   </si>
 </sst>
 </file>
@@ -3130,14 +3320,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3148,14 +3338,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3166,7 +3356,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -3184,14 +3374,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3292,14 +3482,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>704</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3310,14 +3500,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3328,14 +3518,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3346,14 +3536,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3528,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -3571,7 +3761,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>715</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8112" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="763">
   <si>
     <t>Service</t>
   </si>
@@ -2886,6 +2886,192 @@
   </si>
   <si>
     <t>10240223</t>
+  </si>
+  <si>
+    <t>10240381</t>
+  </si>
+  <si>
+    <t>136606488</t>
+  </si>
+  <si>
+    <t>10240750</t>
+  </si>
+  <si>
+    <t>10240763</t>
+  </si>
+  <si>
+    <t>10240776</t>
+  </si>
+  <si>
+    <t>10240780</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59588}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 14aec76f0552eab4d7ee6684de025b87
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10241274</t>
+  </si>
+  <si>
+    <t>10241287</t>
+  </si>
+  <si>
+    <t>10241321</t>
+  </si>
+  <si>
+    <t>10241328</t>
+  </si>
+  <si>
+    <t>10241332</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.9', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62531}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 05109ded1b57af33037cb229f092eaa1
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10241343</t>
+  </si>
+  <si>
+    <t>10241346</t>
+  </si>
+  <si>
+    <t>136615068</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.130)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.23', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56913}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 75b491b0b63ffea984c33ea0cbcbc2dc
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10244541</t>
+  </si>
+  <si>
+    <t>10244542</t>
+  </si>
+  <si>
+    <t>10244545</t>
+  </si>
+  <si>
+    <t>10244549</t>
+  </si>
+  <si>
+    <t>136648350</t>
+  </si>
+  <si>
+    <t>10246046</t>
+  </si>
+  <si>
+    <t>136665568</t>
+  </si>
+  <si>
+    <t>10246810</t>
+  </si>
+  <si>
+    <t>136673543</t>
+  </si>
+  <si>
+    <t>10249106</t>
+  </si>
+  <si>
+    <t>136697945</t>
+  </si>
+  <si>
+    <t>10254631</t>
+  </si>
+  <si>
+    <t>136755641</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.224)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.37', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.224, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49610}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 330e74b248d2e4b7ea1b515a50871fa6
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10256096</t>
+  </si>
+  <si>
+    <t>136770590</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.224)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.37', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.224, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50660}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 66d17f66908eb3f6310b8540fe666a12
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10256152</t>
+  </si>
+  <si>
+    <t>10256702</t>
+  </si>
+  <si>
+    <t>10256707</t>
+  </si>
+  <si>
+    <t>10256709</t>
+  </si>
+  <si>
+    <t>10256710</t>
+  </si>
+  <si>
+    <t>10256711</t>
+  </si>
+  <si>
+    <t>10256713</t>
+  </si>
+  <si>
+    <t>10256725</t>
+  </si>
+  <si>
+    <t>10256726</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=120.0.6099.225)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.39', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57498}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3ff47f08216453d51b0c5d4f50986b53
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10256781</t>
+  </si>
+  <si>
+    <t>10256785</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3506,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>696</v>
+        <v>752</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -3338,7 +3524,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3356,7 +3542,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -3374,7 +3560,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -3482,14 +3668,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3500,14 +3686,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3518,14 +3704,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3536,14 +3722,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3597,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>658</v>
+        <v>361</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3718,11 +3904,11 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>147</v>
@@ -3740,7 +3926,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
@@ -3761,7 +3947,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>715</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8404" uniqueCount="769">
   <si>
     <t>Service</t>
   </si>
@@ -3072,6 +3072,34 @@
   </si>
   <si>
     <t>10256785</t>
+  </si>
+  <si>
+    <t>10257507</t>
+  </si>
+  <si>
+    <t>10257574</t>
+  </si>
+  <si>
+    <t>10257575</t>
+  </si>
+  <si>
+    <t>136788852</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (abf84d25c4b86a1604cc4d51f8d38779)] -&gt; id: GreyTick] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.5', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52331}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: abf84d25c4b86a1604cc4d51f8d38779</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.5', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65007}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 17b7458ade992efd115a3d8bf2fee049</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +3534,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -3524,7 +3552,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3668,11 +3696,11 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>760</v>
@@ -3904,14 +3932,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>768</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3926,7 +3954,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
@@ -3947,7 +3975,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>767</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8404" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8527" uniqueCount="791">
   <si>
     <t>Service</t>
   </si>
@@ -3100,6 +3100,85 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65007}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 17b7458ade992efd115a3d8bf2fee049</t>
+  </si>
+  <si>
+    <t>10258353</t>
+  </si>
+  <si>
+    <t>10258358</t>
+  </si>
+  <si>
+    <t>10258362</t>
+  </si>
+  <si>
+    <t>10258374</t>
+  </si>
+  <si>
+    <t>10258386</t>
+  </si>
+  <si>
+    <t>10258388</t>
+  </si>
+  <si>
+    <t>10258391</t>
+  </si>
+  <si>
+    <t>10258396</t>
+  </si>
+  <si>
+    <t>136795298</t>
+  </si>
+  <si>
+    <t>10261583</t>
+  </si>
+  <si>
+    <t>10261593</t>
+  </si>
+  <si>
+    <t>10261604</t>
+  </si>
+  <si>
+    <t>10261607</t>
+  </si>
+  <si>
+    <t>10261616</t>
+  </si>
+  <si>
+    <t>10261617</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.21', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49919}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3808ae01dfe29b6c59e38b654006fc08</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=120.0.6099.225)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.21', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 120.0.6099.225, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49919}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3808ae01dfe29b6c59e38b654006fc08
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10261696</t>
+  </si>
+  <si>
+    <t>10261698</t>
+  </si>
+  <si>
+    <t>10261702</t>
+  </si>
+  <si>
+    <t>10261704</t>
+  </si>
+  <si>
+    <t>136832320</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3613,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -3552,7 +3631,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3570,7 +3649,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -3588,7 +3667,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -3696,14 +3775,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3714,7 +3793,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -3732,7 +3811,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -3750,14 +3829,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3932,14 +4011,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>768</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3975,7 +4054,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>767</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8527" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8594" uniqueCount="802">
   <si>
     <t>Service</t>
   </si>
@@ -3179,6 +3179,47 @@
   </si>
   <si>
     <t>136832320</t>
+  </si>
+  <si>
+    <t>10262084</t>
+  </si>
+  <si>
+    <t>10262092</t>
+  </si>
+  <si>
+    <t>10262104</t>
+  </si>
+  <si>
+    <t>10262110</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.85)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.69', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64237}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d4804c12644307a50394ee1d762ff46a
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10262150</t>
+  </si>
+  <si>
+    <t>10262154</t>
+  </si>
+  <si>
+    <t>10262208</t>
+  </si>
+  <si>
+    <t>10262211</t>
+  </si>
+  <si>
+    <t>10262213</t>
+  </si>
+  <si>
+    <t>136839363</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3654,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -3631,7 +3672,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3649,7 +3690,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -3667,7 +3708,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -3775,14 +3816,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3793,14 +3834,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3811,7 +3852,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -3829,14 +3870,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>784</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4011,7 +4052,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8594" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8635" uniqueCount="809">
   <si>
     <t>Service</t>
   </si>
@@ -3220,6 +3220,27 @@
   </si>
   <si>
     <t>136839363</t>
+  </si>
+  <si>
+    <t>10264902</t>
+  </si>
+  <si>
+    <t>10264903</t>
+  </si>
+  <si>
+    <t>10264909</t>
+  </si>
+  <si>
+    <t>10264910</t>
+  </si>
+  <si>
+    <t>136873479</t>
+  </si>
+  <si>
+    <t>10266615</t>
+  </si>
+  <si>
+    <t>136895718</t>
   </si>
 </sst>
 </file>
@@ -3816,7 +3837,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -3834,7 +3855,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -3852,7 +3873,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -3870,7 +3891,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -4052,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -4095,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8635" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8843" uniqueCount="840">
   <si>
     <t>Service</t>
   </si>
@@ -3241,6 +3241,175 @@
   </si>
   <si>
     <t>136895718</t>
+  </si>
+  <si>
+    <t>10267199</t>
+  </si>
+  <si>
+    <t>10267204</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.62', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58911}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 94d3d3ca37c466c895b4e2eb0f3e2d5b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.62', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58911}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 94d3d3ca37c466c895b4e2eb0f3e2d5b
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10267233</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.clear()" because the return value of "connect_OCBaseMethods.OrderCreation.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.62', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60460}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 04d45728d7764dee35627ccea70e7e3c
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: hlkOrderSearch (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10267271</t>
+  </si>
+  <si>
+    <t>10267278</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.47', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52762}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 808ea59d6c281e6d37651adf4fbb2f7b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.47', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52762}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 808ea59d6c281e6d37651adf4fbb2f7b
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10267285</t>
+  </si>
+  <si>
+    <t>10267286</t>
+  </si>
+  <si>
+    <t>10267296</t>
+  </si>
+  <si>
+    <t>10267302</t>
+  </si>
+  <si>
+    <t>10267311</t>
+  </si>
+  <si>
+    <t>10267312</t>
+  </si>
+  <si>
+    <t>136902504</t>
+  </si>
+  <si>
+    <t>10269059</t>
+  </si>
+  <si>
+    <t>10269064</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59785}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0ec92c51aa63d790c44806abf22c1644
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10269073</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51600}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 42242f21495cfd6b75e8aa91fa4d96a0
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10269082</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60269}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 24216c9377acda6f570e24bc430c143e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60269}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 24216c9377acda6f570e24bc430c143e
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10269140</t>
+  </si>
+  <si>
+    <t>10269152</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53882}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86d56ff2c27acd402c43a7160cb35ffb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53882}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86d56ff2c27acd402c43a7160cb35ffb
+*** Element info: {Using=id, value=lblServiceID}</t>
   </si>
 </sst>
 </file>
@@ -3675,14 +3844,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>791</v>
+        <v>831</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>832</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3693,14 +3862,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>834</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3711,14 +3880,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>793</v>
+        <v>837</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>838</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3729,14 +3898,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3837,14 +4006,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3855,14 +4024,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3873,14 +4042,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3891,14 +4060,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>839</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4060,7 +4229,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>814</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4073,11 +4242,11 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>147</v>
@@ -4095,7 +4264,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
@@ -4116,7 +4285,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8843" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8911" uniqueCount="851">
   <si>
     <t>Service</t>
   </si>
@@ -3410,6 +3410,52 @@
 Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53882}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 86d56ff2c27acd402c43a7160cb35ffb
 *** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10269171</t>
+  </si>
+  <si>
+    <t>10269180</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53341}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b6bce7cef5f2489a96ed328dc60e606c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.161)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.7', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.161, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53341}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b6bce7cef5f2489a96ed328dc60e606c
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10270706</t>
+  </si>
+  <si>
+    <t>10270719</t>
+  </si>
+  <si>
+    <t>10270722</t>
+  </si>
+  <si>
+    <t>10270727</t>
+  </si>
+  <si>
+    <t>10270733</t>
+  </si>
+  <si>
+    <t>10270734</t>
+  </si>
+  <si>
+    <t>136945358</t>
   </si>
 </sst>
 </file>
@@ -3862,7 +3908,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3880,14 +3926,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3898,11 +3944,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -4006,14 +4052,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4024,14 +4070,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4042,14 +4088,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4060,14 +4106,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4136,7 +4182,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
@@ -4242,11 +4288,11 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>147</v>
@@ -4264,7 +4310,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8911" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9068" uniqueCount="875">
   <si>
     <t>Service</t>
   </si>
@@ -3456,6 +3456,86 @@
   </si>
   <si>
     <t>136945358</t>
+  </si>
+  <si>
+    <t>10272992</t>
+  </si>
+  <si>
+    <t>10272994</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=121.0.6167.185)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.35', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 121.0.6167.185, chrome: {chromedriverVersion: 121.0.6167.184 (057a8ae7deb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64484}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ff178dd8dfef108d40514a617624c17b
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10273021</t>
+  </si>
+  <si>
+    <t>10273024</t>
+  </si>
+  <si>
+    <t>10273029</t>
+  </si>
+  <si>
+    <t>10273032</t>
+  </si>
+  <si>
+    <t>10273038</t>
+  </si>
+  <si>
+    <t>10273056</t>
+  </si>
+  <si>
+    <t>10273071</t>
+  </si>
+  <si>
+    <t>10273072</t>
+  </si>
+  <si>
+    <t>136973081</t>
+  </si>
+  <si>
+    <t>10273453</t>
+  </si>
+  <si>
+    <t>10273454</t>
+  </si>
+  <si>
+    <t>10273459</t>
+  </si>
+  <si>
+    <t>10273691</t>
+  </si>
+  <si>
+    <t>10273692</t>
+  </si>
+  <si>
+    <t>10273693</t>
+  </si>
+  <si>
+    <t>10273700</t>
+  </si>
+  <si>
+    <t>10273725</t>
+  </si>
+  <si>
+    <t>10273727</t>
+  </si>
+  <si>
+    <t>10273795</t>
+  </si>
+  <si>
+    <t>10273796</t>
+  </si>
+  <si>
+    <t>136984827</t>
   </si>
 </sst>
 </file>
@@ -3890,11 +3970,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>832</v>
@@ -3908,7 +3988,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -3926,14 +4006,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>842</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3944,7 +4024,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4052,14 +4132,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4070,14 +4150,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4088,14 +4168,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4106,14 +4186,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4167,7 +4247,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4288,7 +4368,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9068" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="886">
   <si>
     <t>Service</t>
   </si>
@@ -3536,6 +3536,47 @@
   </si>
   <si>
     <t>136984827</t>
+  </si>
+  <si>
+    <t>10275953</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.189)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.189, chrome: {chromedriverVersion: 121.0.6167.184 (057a8ae7deb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50375}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4e0b85e0b26caa43044a6b7ed4319fa7
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10276024</t>
+  </si>
+  <si>
+    <t>10276026</t>
+  </si>
+  <si>
+    <t>10276032</t>
+  </si>
+  <si>
+    <t>10276039</t>
+  </si>
+  <si>
+    <t>10276068</t>
+  </si>
+  <si>
+    <t>10276077</t>
+  </si>
+  <si>
+    <t>10276082</t>
+  </si>
+  <si>
+    <t>10276088</t>
+  </si>
+  <si>
+    <t>137010051</t>
   </si>
 </sst>
 </file>
@@ -3970,14 +4011,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>832</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3988,14 +4029,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>834</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4006,7 +4047,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -4024,7 +4065,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4132,14 +4173,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4150,14 +4191,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4168,14 +4209,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4186,14 +4227,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4368,7 +4409,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9295" uniqueCount="909">
   <si>
     <t>Service</t>
   </si>
@@ -3577,6 +3577,75 @@
   </si>
   <si>
     <t>137010051</t>
+  </si>
+  <si>
+    <t>10284452</t>
+  </si>
+  <si>
+    <t>10284463</t>
+  </si>
+  <si>
+    <t>10284473</t>
+  </si>
+  <si>
+    <t>10284488</t>
+  </si>
+  <si>
+    <t>10284531</t>
+  </si>
+  <si>
+    <t>10284549</t>
+  </si>
+  <si>
+    <t>10284562</t>
+  </si>
+  <si>
+    <t>10284565</t>
+  </si>
+  <si>
+    <t>137103548</t>
+  </si>
+  <si>
+    <t>10290936</t>
+  </si>
+  <si>
+    <t>10290952</t>
+  </si>
+  <si>
+    <t>10290995</t>
+  </si>
+  <si>
+    <t>10291051</t>
+  </si>
+  <si>
+    <t>10291068</t>
+  </si>
+  <si>
+    <t>10293410</t>
+  </si>
+  <si>
+    <t>10293415</t>
+  </si>
+  <si>
+    <t>10293432</t>
+  </si>
+  <si>
+    <t>10293446</t>
+  </si>
+  <si>
+    <t>10293457</t>
+  </si>
+  <si>
+    <t>10293466</t>
+  </si>
+  <si>
+    <t>10293476</t>
+  </si>
+  <si>
+    <t>10293483</t>
+  </si>
+  <si>
+    <t>137200001</t>
   </si>
 </sst>
 </file>
@@ -4011,7 +4080,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -4029,14 +4098,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4047,7 +4116,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -4065,7 +4134,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4173,7 +4242,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -4191,7 +4260,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -4209,7 +4278,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -4227,7 +4296,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -4409,7 +4478,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9295" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="923">
   <si>
     <t>Service</t>
   </si>
@@ -3646,6 +3646,53 @@
   </si>
   <si>
     <t>137200001</t>
+  </si>
+  <si>
+    <t>10294729</t>
+  </si>
+  <si>
+    <t>10294767</t>
+  </si>
+  <si>
+    <t>10294776</t>
+  </si>
+  <si>
+    <t>10294780</t>
+  </si>
+  <si>
+    <t>10294812</t>
+  </si>
+  <si>
+    <t>10294830</t>
+  </si>
+  <si>
+    <t>10294856</t>
+  </si>
+  <si>
+    <t>10294889</t>
+  </si>
+  <si>
+    <t>10294905</t>
+  </si>
+  <si>
+    <t>10294915</t>
+  </si>
+  <si>
+    <t>137213748</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (678a429e6d9e620b861fd0a924b694ab)] -&gt; id: GreyTick] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 122.0.6261.113, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53284}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 678a429e6d9e620b861fd0a924b694ab</t>
+  </si>
+  <si>
+    <t>10294941</t>
+  </si>
+  <si>
+    <t>10294944</t>
   </si>
 </sst>
 </file>
@@ -4080,7 +4127,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -4098,14 +4145,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4116,7 +4163,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -4134,7 +4181,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4242,7 +4289,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -4260,7 +4307,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -4278,7 +4325,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -4296,7 +4343,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -4478,7 +4525,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -4521,7 +4568,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>920</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9497" uniqueCount="942">
   <si>
     <t>Service</t>
   </si>
@@ -3693,6 +3693,94 @@
   </si>
   <si>
     <t>10294944</t>
+  </si>
+  <si>
+    <t>10295959</t>
+  </si>
+  <si>
+    <t>10295966</t>
+  </si>
+  <si>
+    <t>10299995</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: lblServiceID (tried for 30 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=122.0.6261.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.43', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a15c90a65f3c3f855ff37c45702fa158
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: AdvancesSearch (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.43', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a15c90a65f3c3f855ff37c45702fa158</t>
+  </si>
+  <si>
+    <t>10300009</t>
+  </si>
+  <si>
+    <t>10300015</t>
+  </si>
+  <si>
+    <t>10300024</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=122.0.6261.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.16', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63458}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3e8e4ea869dab0400e39a0f5e6cf0ea0
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>137274899</t>
+  </si>
+  <si>
+    <t>10300116</t>
+  </si>
+  <si>
+    <t>10300117</t>
+  </si>
+  <si>
+    <t>10300121</t>
+  </si>
+  <si>
+    <t>10300129</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@ng-form="FDXUPSFOrm"] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49604}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 90906add1415bc7936b4e50a6a63f496</t>
+  </si>
+  <si>
+    <t>10300177</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (90906add1415bc7936b4e50a6a63f496)] -&gt; xpath: //a[@id="idTask"]] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49604}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 90906add1415bc7936b4e50a6a63f496</t>
+  </si>
+  <si>
+    <t>10300215</t>
   </si>
 </sst>
 </file>
@@ -4127,14 +4215,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>926</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4145,7 +4233,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -4163,14 +4251,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>940</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4181,7 +4269,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4289,14 +4377,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4307,14 +4395,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4325,14 +4413,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4343,14 +4431,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4404,7 +4492,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4419,10 +4507,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>938</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4525,7 +4613,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -4568,7 +4656,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>920</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9497" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9650" uniqueCount="966">
   <si>
     <t>Service</t>
   </si>
@@ -3781,6 +3781,104 @@
   </si>
   <si>
     <t>10300215</t>
+  </si>
+  <si>
+    <t>10301209</t>
+  </si>
+  <si>
+    <t>10301214</t>
+  </si>
+  <si>
+    <t>10301221</t>
+  </si>
+  <si>
+    <t>10301224</t>
+  </si>
+  <si>
+    <t>10301228</t>
+  </si>
+  <si>
+    <t>10301230</t>
+  </si>
+  <si>
+    <t>10301239</t>
+  </si>
+  <si>
+    <t>10301246</t>
+  </si>
+  <si>
+    <t>137287433</t>
+  </si>
+  <si>
+    <t>10302044</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=123.0.6312.58)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.71', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 123.0.6312.58, chrome: {chromedriverVersion: 123.0.6312.58 (6b4b19e9dfbb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65362}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fcb8c05ec7c19c76a18fb8ba162091d3
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10302060</t>
+  </si>
+  <si>
+    <t>10302062</t>
+  </si>
+  <si>
+    <t>137297098</t>
+  </si>
+  <si>
+    <t>10302082</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=123.0.6312.58)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.71', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 123.0.6312.58, chrome: {chromedriverVersion: 123.0.6312.58 (6b4b19e9dfbb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55478}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c50c8f08344cdfd43e9f62e6afd930dd
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10302121</t>
+  </si>
+  <si>
+    <t>10302124</t>
+  </si>
+  <si>
+    <t>10302127</t>
+  </si>
+  <si>
+    <t>10302130</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@ng-form="FDXUPSFOrm"] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.71', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 123.0.6312.58, chrome: {chromedriverVersion: 123.0.6312.58 (6b4b19e9dfbb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55040}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7bbfaeb6413e3601aef6c2a71b396d2e</t>
+  </si>
+  <si>
+    <t>10302146</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.71', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 123.0.6312.58, chrome: {chromedriverVersion: 123.0.6312.58 (6b4b19e9dfbb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55040}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7bbfaeb6413e3601aef6c2a71b396d2e</t>
+  </si>
+  <si>
+    <t>10302150</t>
   </si>
 </sst>
 </file>
@@ -4215,14 +4313,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>926</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4233,7 +4331,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -4251,14 +4349,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4269,7 +4367,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -4377,7 +4475,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -4395,7 +4493,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -4413,14 +4511,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>932</v>
+        <v>957</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4431,7 +4529,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -4510,7 +4608,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4613,7 +4711,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9650" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9671" uniqueCount="970">
   <si>
     <t>Service</t>
   </si>
@@ -3879,6 +3879,18 @@
   </si>
   <si>
     <t>10302150</t>
+  </si>
+  <si>
+    <t>10304774</t>
+  </si>
+  <si>
+    <t>10304776</t>
+  </si>
+  <si>
+    <t>137328817</t>
+  </si>
+  <si>
+    <t>137626708</t>
   </si>
 </sst>
 </file>
@@ -4313,7 +4325,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -4331,7 +4343,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -4711,7 +4723,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9671" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9937" uniqueCount="1014">
   <si>
     <t>Service</t>
   </si>
@@ -3891,6 +3891,253 @@
   </si>
   <si>
     <t>137626708</t>
+  </si>
+  <si>
+    <t>10362777</t>
+  </si>
+  <si>
+    <t>10362780</t>
+  </si>
+  <si>
+    <t>10362815</t>
+  </si>
+  <si>
+    <t>10362821</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (cd16583e6182f81e46104daff29842b5)] -&gt; xpath: //a[@id="idTask"]] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63875}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cd16583e6182f81e46104daff29842b5</t>
+  </si>
+  <si>
+    <t>10362904</t>
+  </si>
+  <si>
+    <t>10362907</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52916}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 44d7395a54adc0d97b19d74a4e7aa172
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: AdvancesSearch (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52916}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 44d7395a54adc0d97b19d74a4e7aa172</t>
+  </si>
+  <si>
+    <t>10362938</t>
+  </si>
+  <si>
+    <t>10362951</t>
+  </si>
+  <si>
+    <t>10362978</t>
+  </si>
+  <si>
+    <t>10363025</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64959}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e04cbe7ec9a749041588515a6af9b1ba</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64959}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e04cbe7ec9a749041588515a6af9b1ba
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10363057</t>
+  </si>
+  <si>
+    <t>10363072</t>
+  </si>
+  <si>
+    <t>10363118</t>
+  </si>
+  <si>
+    <t>10363123</t>
+  </si>
+  <si>
+    <t>10363140</t>
+  </si>
+  <si>
+    <t>10363163</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50182}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3c641d9d30f5b854c2751f9725a4ebb6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50182}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3c641d9d30f5b854c2751f9725a4ebb6
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10363180</t>
+  </si>
+  <si>
+    <t>10363185</t>
+  </si>
+  <si>
+    <t>10363217</t>
+  </si>
+  <si>
+    <t>10363223</t>
+  </si>
+  <si>
+    <t>10363233</t>
+  </si>
+  <si>
+    <t>10363250</t>
+  </si>
+  <si>
+    <t>10363255</t>
+  </si>
+  <si>
+    <t>138008961</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome-headless-shell=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55778}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ad6bcdd8b88614036c15f024d8b587d9
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome-headless-shell=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58416}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e0c34978461d2bee3ebac78649ac91e6
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.4', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62508}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 75274fc5e11649e3cc754d3ebfbf3a3f
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>10363768</t>
+  </si>
+  <si>
+    <t>10363772</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52381}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2a5df2705396bce16dd8531932d94fee
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54621}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a19cdfd6f662d12906acaaad7a90bc8b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54621}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a19cdfd6f662d12906acaaad7a90bc8b
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55234}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a84165feee284d878f9c230ad4de2ac2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55234}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a84165feee284d878f9c230ad4de2ac2
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 30 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55448}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 42996abcbfc3e036ddcfd0a1fb750a57</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=126.0.6478.127)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.3', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 126.0.6478.127, chrome: {chromedriverVersion: 126.0.6478.126 (d36ace6122e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55448}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 42996abcbfc3e036ddcfd0a1fb750a57
+*** Element info: {Using=id, value=lblBOLNumValue_1}</t>
+  </si>
+  <si>
+    <t>138020059</t>
   </si>
 </sst>
 </file>
@@ -4325,7 +4572,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>966</v>
+        <v>993</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -4343,7 +4590,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -4361,14 +4608,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>964</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4379,14 +4626,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4487,14 +4734,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>954</v>
+        <v>999</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>932</v>
+        <v>992</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4505,14 +4752,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>951</v>
+        <v>996</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>932</v>
+        <v>984</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4523,14 +4770,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>961</v>
+        <v>997</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4541,14 +4788,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>953</v>
+        <v>998</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>932</v>
+        <v>991</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4602,7 +4849,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4620,7 +4867,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>962</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4723,14 +4970,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>1011</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4748,7 +4995,7 @@
         <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>1012</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -4766,7 +5013,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
